--- a/Data/DateCheck.xlsx
+++ b/Data/DateCheck.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>arpan.bid@informa.com</t>
+          <t>arpanbid1@yahoo.com</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>arpan.bid@informa.com</t>
+          <t>arpanbid1@yahoo.com</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>arpan.bid@informa.com</t>
+          <t>arpanbid1@yahoo.com</t>
         </is>
       </c>
     </row>

--- a/Data/DateCheck.xlsx
+++ b/Data/DateCheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpanbid/Documents/Git Clones/WebAlertify/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BidA\Documents\PY\WebAlertify\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E4416-4538-FE4F-94E7-C29EA22E66F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC4BC5A-35F5-4033-A00D-22DDB149754A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>Link</t>
   </si>
@@ -46,15 +46,9 @@
     <t>Vi</t>
   </si>
   <si>
-    <t>Q1 2025</t>
-  </si>
-  <si>
     <t>Q4 2024</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>arpan.bid@informa.com</t>
   </si>
   <si>
@@ -64,12 +58,6 @@
     <t>IOH</t>
   </si>
   <si>
-    <t>2Q 2024</t>
-  </si>
-  <si>
-    <t>1Q 2024</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -79,114 +67,57 @@
     <t>CelcomDigi</t>
   </si>
   <si>
-    <t>Quarter 2, 2024</t>
-  </si>
-  <si>
-    <t>Quarter 1, 2024</t>
-  </si>
-  <si>
     <t>https://maxis.listedcompany.com/financials.html</t>
   </si>
   <si>
     <t>Maxis</t>
   </si>
   <si>
-    <t>2nd Quarter 2024</t>
-  </si>
-  <si>
-    <t>1st Quarter 2024</t>
-  </si>
-  <si>
     <t>https://www.tm.com.my/investor-relations/financial-information/quarterly-results</t>
   </si>
   <si>
     <t>TM</t>
   </si>
   <si>
-    <t>2nd Quarter FY2024</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
     <t>https://www.time.com.my/about-us/investor-relations/financials#quarterly-results</t>
   </si>
   <si>
     <t>Tima</t>
   </si>
   <si>
-    <t>Q2 2024</t>
-  </si>
-  <si>
-    <t>Q1 2024</t>
-  </si>
-  <si>
     <t>https://main.pldt.com/investor-relations/presentations</t>
   </si>
   <si>
     <t>PLDT</t>
   </si>
   <si>
-    <t>2Q24</t>
-  </si>
-  <si>
-    <t>1Q24</t>
-  </si>
-  <si>
     <t>https://www.globe.com.ph/about-us/investor-relations/sec-pse-disclosures.html</t>
   </si>
   <si>
     <t>Globe</t>
   </si>
   <si>
-    <t>2Q24 Quarterly Results Press Release</t>
-  </si>
-  <si>
-    <t>1Q24 Quarterly Results Press Release</t>
-  </si>
-  <si>
     <t>https://investor.ais.co.th/quarterly_report.html?year=2024</t>
   </si>
   <si>
     <t>AIS</t>
   </si>
   <si>
-    <t>1q2024</t>
-  </si>
-  <si>
     <t>https://investor.truecorp.co.th/financials.html</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>Q2/2024</t>
-  </si>
-  <si>
     <t>https://www.chinatelecom-h.com/en/regulatory/announcements.php?year=2024</t>
   </si>
   <si>
     <t>China Telecom</t>
   </si>
   <si>
-    <t>SIX MONTHS ENDED 30 JUNE 2024</t>
-  </si>
-  <si>
-    <t>FetchingError</t>
-  </si>
-  <si>
-    <t>https://www.chinamobileltd.com/en/ir/hkex_announcements.php?year=2024</t>
-  </si>
-  <si>
     <t>China Mobile</t>
   </si>
   <si>
-    <t>2024 Interim Results</t>
-  </si>
-  <si>
-    <t>https://www.chinaunicom.com.hk/en/regulatory/announcements.php?year=2024</t>
-  </si>
-  <si>
     <t>China Unicom</t>
   </si>
   <si>
@@ -199,18 +130,9 @@
     <t>ended Jun 2024</t>
   </si>
   <si>
-    <t>ended Mar 2024</t>
-  </si>
-  <si>
-    <t>https://www.telstra.com.au/aboutus/investors/financial-results#2023</t>
-  </si>
-  <si>
     <t>Telstra</t>
   </si>
   <si>
-    <t>FY24 Full Year Results</t>
-  </si>
-  <si>
     <t>https://www.tpgtelecom.com.au/investor-relations/financial-results</t>
   </si>
   <si>
@@ -226,64 +148,136 @@
     <t>Airtel</t>
   </si>
   <si>
-    <t>30, 2024</t>
-  </si>
-  <si>
-    <t>31, 2024</t>
-  </si>
-  <si>
     <t>https://www.ril.com/investors/financial-reporting</t>
   </si>
   <si>
     <t>RIL</t>
   </si>
   <si>
-    <t>ended 30 Jun, 2024</t>
-  </si>
-  <si>
-    <t>ended 31 Mar, 2024</t>
-  </si>
-  <si>
     <t>https://trai.gov.in/release-publication/reports/telecom-subscriptions-reports</t>
   </si>
   <si>
     <t>TRAI</t>
   </si>
   <si>
-    <t>30th June, 2024</t>
-  </si>
-  <si>
-    <t>31st March, 2024</t>
-  </si>
-  <si>
     <t>https://corporate.convergeict.com/investor-relations#2024</t>
   </si>
   <si>
     <t>Converge ICT</t>
   </si>
   <si>
-    <t>2Q2024 Quarterly Report - 17Q</t>
-  </si>
-  <si>
-    <t>1Q2024 Quarterly Report - 17Q</t>
-  </si>
-  <si>
     <t>https://www.telkom.co.id/sites/investor-relations/en_US/page/reports-1027</t>
   </si>
   <si>
-    <t>Telkomsel - New</t>
-  </si>
-  <si>
     <t>https://www.smartfren.com/investor/</t>
   </si>
   <si>
     <t>Smartfren</t>
   </si>
   <si>
-    <t>Laporan Keuangan Q2-2024</t>
-  </si>
-  <si>
-    <t>Laporan Keuangan Q1-2024</t>
+    <t>Q2 2025</t>
+  </si>
+  <si>
+    <t>Q3 2025</t>
+  </si>
+  <si>
+    <t>3Q 2024</t>
+  </si>
+  <si>
+    <t>4Q 2024</t>
+  </si>
+  <si>
+    <t>Quarter 3, 2024</t>
+  </si>
+  <si>
+    <t>Quarter 4, 2024</t>
+  </si>
+  <si>
+    <t>3rd Quarter 2024</t>
+  </si>
+  <si>
+    <t>4th Quarter 2024</t>
+  </si>
+  <si>
+    <t>4th Quarter FY2024 Ended</t>
+  </si>
+  <si>
+    <t>Q3 2024</t>
+  </si>
+  <si>
+    <t>4Q24</t>
+  </si>
+  <si>
+    <t>3Q24</t>
+  </si>
+  <si>
+    <t>3Q24 Quarterly Report</t>
+  </si>
+  <si>
+    <t>4Q24 Quarterly Report</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Quarter 4</t>
+  </si>
+  <si>
+    <t>ANNUAL RESULTS FOR THE YEAR ENDED 31 DECEMBER 2024</t>
+  </si>
+  <si>
+    <t>2024 Annual Results</t>
+  </si>
+  <si>
+    <t>https://www.chinamobileltd.com/en/ir/hkex_announcements.php?year=2025</t>
+  </si>
+  <si>
+    <t>https://www.chinaunicom.com.hk/en/regulatory/announcements.php</t>
+  </si>
+  <si>
+    <t>2024 Annual Results Announcement</t>
+  </si>
+  <si>
+    <t>https://www.telstra.com.au/aboutus/investors/financial-results#2025</t>
+  </si>
+  <si>
+    <t>FY24 Half Year</t>
+  </si>
+  <si>
+    <t>ended Dec 2024</t>
+  </si>
+  <si>
+    <t>2024 Full year results</t>
+  </si>
+  <si>
+    <t>Q3FY25</t>
+  </si>
+  <si>
+    <t>quarter ended 31 Dec, 2024</t>
+  </si>
+  <si>
+    <t>31st December, 2024</t>
+  </si>
+  <si>
+    <t>30th, September, 2024</t>
+  </si>
+  <si>
+    <t>3Q2024 Quarterly Report - 17Q</t>
+  </si>
+  <si>
+    <t>FY2024 Press Release</t>
+  </si>
+  <si>
+    <t>Telkomsel</t>
+  </si>
+  <si>
+    <t>FY 2024</t>
+  </si>
+  <si>
+    <t>Laporan Keuangan Q3-2024</t>
+  </si>
+  <si>
+    <t>Laporan Keuangan Q4-2024</t>
   </si>
 </sst>
 </file>
@@ -339,11 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,12 +644,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -682,418 +685,422 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{B4FC487D-3864-4058-9F87-7A1F1F589A0D}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{D254C347-CFCA-4A35-8816-516AB9E958C2}"/>
+    <hyperlink ref="A14" r:id="rId3" xr:uid="{9B2C0A68-3537-4788-839B-7CD1209607B0}"/>
+    <hyperlink ref="A16" r:id="rId4" location="2025" xr:uid="{CB607E8A-E148-4AB1-9389-80651CE2759B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Rockwell"&amp;9&amp;K0078D7 Information Classification: General</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Data/DateCheck.xlsx
+++ b/Data/DateCheck.xlsx
@@ -730,13 +730,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>3Q2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FY24 Half Year</t>
+          <t>FY25 Half Year</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>FetchingError</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
